--- a/example.xlsx
+++ b/example.xlsx
@@ -8,6 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Monday" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Tuesday" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Wednesday" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Thursday" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Friday" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,6 +418,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -469,6 +492,46 @@
           <t>E1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -476,6 +539,46 @@
           <t>E2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -483,6 +586,46 @@
           <t>E3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -490,6 +633,46 @@
           <t>E4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -497,6 +680,46 @@
           <t>E5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +727,46 @@
           <t>E6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -511,6 +774,46 @@
           <t>E7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -518,6 +821,46 @@
           <t>E8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -525,6 +868,46 @@
           <t>E9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -532,6 +915,46 @@
           <t>E10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -539,6 +962,46 @@
           <t>E11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -546,6 +1009,46 @@
           <t>E12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -553,6 +1056,46 @@
           <t>E13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -560,6 +1103,46 @@
           <t>E14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -567,6 +1150,46 @@
           <t>E15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -574,6 +1197,46 @@
           <t>E16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -581,6 +1244,46 @@
           <t>E17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -588,6 +1291,46 @@
           <t>E18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -595,11 +1338,4095 @@
           <t>E19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
           <t>E20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>08:00:00 - 08:55:00</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>09:00:00 - 09:55:00</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>10:00:00 - 10:55:00</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>11:00:00 - 11:55:00</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>12:00:00 - 12:55:00</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>13:00:00 - 13:55:00</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>14:00:00 - 14:55:00</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>15:00:00 - 15:55:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>E14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>E15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>E16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>E17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>E18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>E19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>E20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>08:00:00 - 08:55:00</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>09:00:00 - 09:55:00</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>10:00:00 - 10:55:00</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>11:00:00 - 11:55:00</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>12:00:00 - 12:55:00</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>13:00:00 - 13:55:00</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>14:00:00 - 14:55:00</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>15:00:00 - 15:55:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>E14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>E15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>E16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>E17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>E18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>E19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>E20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>08:00:00 - 08:55:00</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>09:00:00 - 09:55:00</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>10:00:00 - 10:55:00</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>11:00:00 - 11:55:00</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>12:00:00 - 12:55:00</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>13:00:00 - 13:55:00</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>14:00:00 - 14:55:00</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>15:00:00 - 15:55:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>E14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>E15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>E16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>E17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>E18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>E19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>E20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>08:00:00 - 08:55:00</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>09:00:00 - 09:55:00</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>10:00:00 - 10:55:00</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>11:00:00 - 11:55:00</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>12:00:00 - 12:55:00</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>13:00:00 - 13:55:00</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>14:00:00 - 14:55:00</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>15:00:00 - 15:55:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5B, g</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Batch: 2022, CS, 5th Semester, BCS-5A, g</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7B, j</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1A, a</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3B, d</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Batch: 2024, CS, 1th Semester, BCS-1B, a</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Batch: 2023, CS, 3th Semester, BCS-3A, d</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Batch: 2021, CS, 7th Semester, BCS-7A, j</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>E12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>E13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>E14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>E15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>E16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>E17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>E18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>E19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>E20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
